--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1918198.141153187</v>
+        <v>1913893.018156118</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963627.560917795</v>
+        <v>9963627.560917793</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>26.60338682606199</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>88.0908181594307</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>149.7933161434361</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>141.5514534315109</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107.4511321606784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2518847340494</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760057</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425935</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>141.1083392873563</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246134</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937522</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074809</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>89.72490574397384</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.16941838122325</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>45.66399984503661</v>
+        <v>36.85894767157261</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913144</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>276.2728810337161</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>38.34453710645737</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721421</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>20.2769799447059</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>167.9879728931219</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976805</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425542</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>78.42555430125827</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722606</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>101.9154861872836</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>29.249233057517</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>155.1980648094029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.92847288553223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352091</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999818</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.4721329513122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>107.7122866515529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454104</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>201.2517295315754</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>142.3046100066283</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892427807</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465729</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3000,25 +3000,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>127.6210071331179</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>40.6225301034174</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>192.9787615936012</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>95.77623638693835</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>95.25381996636241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="C2" t="n">
-        <v>393.841617006275</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="E2" t="n">
-        <v>393.841617006275</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>168.6128590400093</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T2" t="n">
-        <v>482.8222414097404</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="U2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="V2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="W2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="X2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.53661367296053</v>
+        <v>382.6734660885896</v>
       </c>
       <c r="C3" t="n">
-        <v>30.53661367296053</v>
+        <v>382.6734660885896</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296053</v>
+        <v>233.7390564273384</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>74.50160142188285</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264286</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="T3" t="n">
-        <v>598.7959687224147</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="U3" t="n">
-        <v>409.37618370593</v>
+        <v>525.6547321810249</v>
       </c>
       <c r="V3" t="n">
-        <v>219.9563986894453</v>
+        <v>382.6734660885896</v>
       </c>
       <c r="W3" t="n">
-        <v>219.9563986894453</v>
+        <v>382.6734660885896</v>
       </c>
       <c r="X3" t="n">
-        <v>219.9563986894453</v>
+        <v>382.6734660885896</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.53661367296053</v>
+        <v>382.6734660885896</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.544105080013</v>
+        <v>808.6299677501216</v>
       </c>
       <c r="C5" t="n">
-        <v>1341.544105080013</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="D5" t="n">
-        <v>1341.544105080013</v>
+        <v>439.6674508097099</v>
       </c>
       <c r="E5" t="n">
-        <v>955.7558524817691</v>
+        <v>53.87919821146569</v>
       </c>
       <c r="F5" t="n">
-        <v>544.7699476921616</v>
+        <v>46.93369746226222</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675759</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017214</v>
+        <v>111.6705539017223</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746968</v>
+        <v>277.9807166746988</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603075</v>
+        <v>521.2049416030782</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709159</v>
+        <v>823.5081935709208</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582749</v>
+        <v>1135.316836582756</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079236</v>
+        <v>1416.413635079244</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332754</v>
+        <v>1621.822248332763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583788</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540648</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540648</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540648</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.080602212012</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="V5" t="n">
-        <v>1450.080602212012</v>
+        <v>1727.90281583789</v>
       </c>
       <c r="W5" t="n">
-        <v>1450.080602212012</v>
+        <v>1585.369139790055</v>
       </c>
       <c r="X5" t="n">
-        <v>1450.080602212012</v>
+        <v>1585.369139790055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1450.080602212012</v>
+        <v>1195.229807814243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>793.0683472825323</v>
+        <v>517.1829502645916</v>
       </c>
       <c r="C6" t="n">
-        <v>618.6153180014053</v>
+        <v>342.7299209834646</v>
       </c>
       <c r="D6" t="n">
-        <v>618.6153180014053</v>
+        <v>193.7955113222133</v>
       </c>
       <c r="E6" t="n">
-        <v>459.3778629959497</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="F6" t="n">
-        <v>312.8433050228347</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="G6" t="n">
-        <v>175.7613181367945</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="H6" t="n">
-        <v>78.31649151814671</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675759</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787503</v>
+        <v>61.66788464787572</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806057</v>
+        <v>186.1577239806072</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189969</v>
+        <v>399.8722171189994</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223486</v>
+        <v>668.6238185223524</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035246</v>
+        <v>958.897120035251</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228316</v>
+        <v>1202.220686228322</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639505</v>
+        <v>1378.176233639512</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906546</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.10027070377</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="S6" t="n">
-        <v>1258.309378699366</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="T6" t="n">
-        <v>1062.768760419121</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="U6" t="n">
-        <v>834.653618374677</v>
+        <v>1445.878660906554</v>
       </c>
       <c r="V6" t="n">
-        <v>834.653618374677</v>
+        <v>1355.247442983348</v>
       </c>
       <c r="W6" t="n">
-        <v>834.653618374677</v>
+        <v>1101.010086255146</v>
       </c>
       <c r="X6" t="n">
-        <v>834.653618374677</v>
+        <v>893.1585860496134</v>
       </c>
       <c r="Y6" t="n">
-        <v>793.0683472825323</v>
+        <v>685.3982872846595</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.68330868548145</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="C7" t="n">
-        <v>80.68330868548145</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="D7" t="n">
-        <v>80.68330868548145</v>
+        <v>219.7024101734667</v>
       </c>
       <c r="E7" t="n">
-        <v>80.68330868548145</v>
+        <v>71.78931659107357</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675759</v>
+        <v>34.5580563167578</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574661</v>
+        <v>64.24066662574729</v>
       </c>
       <c r="L7" t="n">
-        <v>132.129986158411</v>
+        <v>132.1299861584123</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347964</v>
+        <v>206.9680378347983</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195356</v>
+        <v>287.8841338195381</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934704</v>
+        <v>342.3101561934734</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585799</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585799</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="R7" t="n">
-        <v>369.819049585799</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="S7" t="n">
-        <v>369.819049585799</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="T7" t="n">
-        <v>369.819049585799</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="U7" t="n">
-        <v>80.68330868548145</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="V7" t="n">
-        <v>80.68330868548145</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="W7" t="n">
-        <v>80.68330868548145</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="X7" t="n">
-        <v>80.68330868548145</v>
+        <v>369.8190495858024</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.68330868548145</v>
+        <v>369.8190495858024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>773.7465554689228</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="C8" t="n">
-        <v>773.7465554689228</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="D8" t="n">
-        <v>773.7465554689228</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="E8" t="n">
-        <v>773.7465554689228</v>
+        <v>334.4233539899546</v>
       </c>
       <c r="F8" t="n">
-        <v>766.8010547197193</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301913</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232734</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711888</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578733</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.28654013517</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794703</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457213</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.544009457213</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1533.812153794124</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1160.346395533045</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1160.346395533045</v>
+        <v>721.0231940540764</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>767.9840153902088</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>593.5309861090818</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>444.5965764478305</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>285.359121442375</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562342</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104403</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789501</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972667</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474385</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>1595.273638474385</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="U9" t="n">
-        <v>1595.273638474385</v>
+        <v>1745.745249409541</v>
       </c>
       <c r="V9" t="n">
-        <v>1360.121530242642</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1105.88417351444</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>1105.88417351444</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>936.1993524102768</v>
+        <v>840.7439854791098</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.289347040599</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2591440360035</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360035</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981548</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018946</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377469</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O10" t="n">
-        <v>472.309103603367</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406003</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514534</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R10" t="n">
-        <v>418.2486949340208</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S10" t="n">
-        <v>418.2486949340208</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T10" t="n">
-        <v>418.2486949340208</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U10" t="n">
-        <v>418.2486949340208</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V10" t="n">
-        <v>418.2486949340208</v>
+        <v>520.289347040599</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2486949340208</v>
+        <v>520.289347040599</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2591440360035</v>
+        <v>520.289347040599</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836013</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5305,19 +5305,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876726</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597657</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474299</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474299</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>114.9565346495196</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179123</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>366.9636532421645</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>199.7675539570444</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5688,37 +5688,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="20">
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.417838136243</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>2837.481655208336</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661313</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5983,7 +5983,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3026.711098656041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3657.141693527828</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3429.152142629811</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3208.359563486281</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,10 +6226,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6320,7 +6320,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3189.272672481338</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C28" t="n">
-        <v>3020.336489553431</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038306</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797706</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>1016.580456911444</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>847.6442739835369</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>697.5276345712011</v>
       </c>
       <c r="E31" t="n">
         <v>549.6145409888043</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2251.007271617392</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2031.405806640333</v>
       </c>
       <c r="U31" t="n">
-        <v>1936.428221820188</v>
+        <v>1742.330579984531</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1487.646091778644</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1198.228921741684</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1198.228921741684</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>1198.228921741684</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6940,16 +6940,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2273.199413378161</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7377,7 +7377,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,40 +7393,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3297.041377688059</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3128.105194760152</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2977.988555347817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2830.075461765423</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2683.185514267513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2515.989414982393</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3927.471972559846</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3699.482421661829</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3478.689842518299</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7666,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952728</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>148.6919058973624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.69998683092876</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>144.5956654067366</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.40333084624207</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.11252040078259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.90318636665948</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>180.533687599287</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>85.27126880501561</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.310863011584047</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865318</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>53.40527886852669</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>59.1588817302268</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>71.47058471168948</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>45.04089287986147</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861532.64086979</v>
+        <v>861532.6408697895</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697895</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>861532.6408697899</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
@@ -26337,25 +26337,25 @@
         <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253111</v>
+        <v>270592.3620253137</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231952</v>
+        <v>115410.0540231913</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742641</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588194</v>
+        <v>62913.63765882004</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197592</v>
+        <v>27875.25362197452</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263458</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936809</v>
+        <v>76435.73471936829</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352150.0288615904</v>
+        <v>-352150.0288615907</v>
       </c>
       <c r="C6" t="n">
-        <v>21096.71923397244</v>
+        <v>21096.71923397009</v>
       </c>
       <c r="D6" t="n">
-        <v>199917.1129370337</v>
+        <v>199917.1129370373</v>
       </c>
       <c r="E6" t="n">
-        <v>-152389.8136570342</v>
+        <v>-152737.1929113921</v>
       </c>
       <c r="F6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628729</v>
       </c>
       <c r="G6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.014662873</v>
       </c>
       <c r="H6" t="n">
-        <v>449053.39391723</v>
+        <v>448706.014662873</v>
       </c>
       <c r="I6" t="n">
-        <v>449053.39391723</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="J6" t="n">
-        <v>399988.4491886853</v>
+        <v>399641.0699343281</v>
       </c>
       <c r="K6" t="n">
-        <v>386139.7562584104</v>
+        <v>385792.3770040529</v>
       </c>
       <c r="L6" t="n">
-        <v>421178.1402952538</v>
+        <v>420830.7610408984</v>
       </c>
       <c r="M6" t="n">
-        <v>291907.0133656321</v>
+        <v>291559.634111275</v>
       </c>
       <c r="N6" t="n">
-        <v>449053.3939172298</v>
+        <v>448706.0146628731</v>
       </c>
       <c r="O6" t="n">
-        <v>449053.3939172298</v>
+        <v>448706.0146628729</v>
       </c>
       <c r="P6" t="n">
-        <v>449053.3939172299</v>
+        <v>448706.0146628729</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950605</v>
+        <v>758.8996292950628</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376849</v>
+        <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594699</v>
+        <v>431.9757039594725</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382156</v>
+        <v>210.429688382158</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262437</v>
+        <v>94.81103524262119</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039888</v>
+        <v>514.2648358039895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931524</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666945</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931499</v>
+        <v>244.4501167931524</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666962</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.45011679315</v>
+        <v>244.4501167931524</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666945</v>
+        <v>110.1392527666907</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>290.2904392801603</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>163.0784424055996</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>45.61628164856518</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377105</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>91.24913371791439</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849659</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716282</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>275.2827095028022</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714734</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760021</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>23.94240680425878</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372554</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>208.1326294300567</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246128</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937506</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074779</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>143.0756814054514</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>164.5132773960811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>99.75704817789463</v>
+        <v>108.5621003513586</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304062</v>
+        <v>30.24193919304032</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.9111576058917</v>
+        <v>36.91115760589136</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2443834913143</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>130.6031647079953</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708287</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>310.8964316109556</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904879</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>172.4862383660579</v>
       </c>
       <c r="U9" t="n">
         <v>225.8205739680685</v>
@@ -27997,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>37.69472288418243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888598</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923915</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R10" t="n">
-        <v>29.64729696438026</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29678,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-4.859222202665234e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085668</v>
+        <v>3.050852781085677</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429361</v>
+        <v>31.2445460442937</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428053</v>
+        <v>117.6180018428057</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286699</v>
+        <v>258.9373162286707</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520264</v>
+        <v>388.0799144520275</v>
       </c>
       <c r="L5" t="n">
-        <v>481.447450251177</v>
+        <v>481.4474502511785</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968092</v>
+        <v>535.7030533968108</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610689</v>
+        <v>544.3712888610705</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191483</v>
+        <v>514.0343715191498</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860958</v>
+        <v>438.7164434860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634652</v>
+        <v>329.4577782634662</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.6431310098733</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898974</v>
+        <v>69.52130774898994</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920256</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868534</v>
+        <v>0.2440682224868541</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030885</v>
+        <v>1.63235014603089</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403518</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062478</v>
+        <v>56.20152915062494</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475934</v>
+        <v>154.2212916475939</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316627</v>
+        <v>263.5887514316635</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721885</v>
+        <v>354.4276051721895</v>
       </c>
       <c r="M6" t="n">
-        <v>413.600297965808</v>
+        <v>413.6002979658092</v>
       </c>
       <c r="N6" t="n">
-        <v>424.547067146866</v>
+        <v>424.5470671468673</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374448</v>
+        <v>388.3776244374459</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872486</v>
+        <v>311.7072835872495</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547495</v>
+        <v>208.3680642547501</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632162</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947716</v>
+        <v>30.32018801947725</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378872</v>
+        <v>6.579516597378891</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757165</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236994</v>
+        <v>1.368507528236998</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377987</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734526</v>
+        <v>41.15475366734538</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635549</v>
+        <v>96.75348224635579</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260798</v>
+        <v>158.9956928260803</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162528</v>
+        <v>203.4597465162534</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399142</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528492</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275345</v>
+        <v>193.4323186275351</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650515002</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235541</v>
+        <v>114.5938440235545</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054702</v>
+        <v>61.5330748605472</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391197</v>
+        <v>23.84935392391204</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830792</v>
+        <v>5.84725943883081</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656341</v>
+        <v>0.07464586517656363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934784</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190909</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699498</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.519486191358</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730382</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475635</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017479</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420141</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153095</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978882</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419861</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O15" t="n">
-        <v>572.868299221487</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990636</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>272.9327299394441</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198366</v>
+        <v>77.89141170198445</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070459</v>
+        <v>167.990063407047</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811898</v>
+        <v>245.6810352811912</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695365</v>
+        <v>305.3568201695381</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264478</v>
+        <v>314.9582252644796</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974615</v>
+        <v>283.936160097463</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308262</v>
+        <v>207.4834477308275</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890157</v>
+        <v>107.1520883890167</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092671</v>
+        <v>27.38366498092719</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573037</v>
+        <v>125.7473124573045</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923143</v>
+        <v>215.8732253923154</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437896</v>
+        <v>271.4662640437909</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635327</v>
+        <v>293.2053550635339</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930004</v>
+        <v>245.7813799930015</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729183</v>
+        <v>177.7328761729192</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872795</v>
+        <v>68.38629016872858</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554447</v>
+        <v>29.98243465554495</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501452</v>
+        <v>68.57507023501512</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923085</v>
+        <v>75.59399159230912</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761536</v>
+        <v>81.73343028761599</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569171</v>
+        <v>54.97578017569228</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235205</v>
+        <v>27.78676100235256</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K8" t="n">
-        <v>216.473758780891</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662057</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974042</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109607</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093967</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K9" t="n">
-        <v>158.678047216999</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.152662181806</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510199</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440065</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332333</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892929</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850741</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563548</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767809</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769702</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084182</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O15" t="n">
-        <v>430.2720547770426</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>506.7248157016081</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060491</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>130.3364854949997</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096312</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1913893.018156118</v>
+        <v>1915653.548458903</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -661,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
-        <v>26.60338682606199</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>61.57494829067528</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>83.41747001683163</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>141.5514534315109</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443466</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>144.7186784000503</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404937</v>
+        <v>412.2518847340494</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>141.1083392873563</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>89.72490574397384</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>123.3107871819419</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.05337266685166</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>36.85894767157261</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>297.4476353348076</v>
       </c>
       <c r="F8" t="n">
-        <v>276.2728810337161</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>20.2769799447059</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.2255350363359</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976805</v>
+        <v>31.68046530976974</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>29.249233057517</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>20.92847288553223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.584653352091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>104.8913819999818</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V22" t="n">
-        <v>71.60395572454104</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892427807</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465729</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>127.6210071331179</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652803</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487954</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487954</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323105</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158255</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G2" t="n">
-        <v>168.6128590400093</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4330,13 +4330,13 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644756</v>
@@ -4345,37 +4345,37 @@
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652803</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652803</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652803</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652803</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652803</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652803</v>
+        <v>338.1060369005845</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652803</v>
+        <v>338.1060369005845</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>382.6734660885896</v>
+        <v>581.8870116452117</v>
       </c>
       <c r="C3" t="n">
-        <v>382.6734660885896</v>
+        <v>407.4339823640847</v>
       </c>
       <c r="D3" t="n">
-        <v>233.7390564273384</v>
+        <v>258.4995727028335</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188285</v>
+        <v>99.26211769737796</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188285</v>
+        <v>99.26211769737796</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188285</v>
+        <v>99.26211769737796</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188285</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4418,43 +4418,43 @@
         <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140248</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264286</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810249</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810249</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810249</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V3" t="n">
-        <v>382.6734660885896</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W3" t="n">
-        <v>382.6734660885896</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X3" t="n">
-        <v>382.6734660885896</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.6734660885896</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4494,46 +4494,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.6299677501216</v>
+        <v>1002.294123926024</v>
       </c>
       <c r="C5" t="n">
-        <v>439.6674508097099</v>
+        <v>1002.294123926024</v>
       </c>
       <c r="D5" t="n">
-        <v>439.6674508097099</v>
+        <v>1002.294123926024</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146569</v>
+        <v>1002.294123926024</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226222</v>
+        <v>856.11364069365</v>
       </c>
       <c r="G5" t="n">
-        <v>34.5580563167578</v>
+        <v>439.6975955077415</v>
       </c>
       <c r="H5" t="n">
-        <v>34.5580563167578</v>
+        <v>128.3539025062531</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017223</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746988</v>
+        <v>277.9807166746975</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030782</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709208</v>
+        <v>823.5081935709172</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582756</v>
+        <v>1135.316836582751</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079244</v>
+        <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332763</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.90281583789</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1727.90281583789</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="S5" t="n">
-        <v>1727.90281583789</v>
+        <v>1586.994975598231</v>
       </c>
       <c r="T5" t="n">
-        <v>1727.90281583789</v>
+        <v>1586.994975598231</v>
       </c>
       <c r="U5" t="n">
-        <v>1727.90281583789</v>
+        <v>1333.357011269595</v>
       </c>
       <c r="V5" t="n">
-        <v>1727.90281583789</v>
+        <v>1002.294123926024</v>
       </c>
       <c r="W5" t="n">
-        <v>1585.369139790055</v>
+        <v>1002.294123926024</v>
       </c>
       <c r="X5" t="n">
-        <v>1585.369139790055</v>
+        <v>1002.294123926024</v>
       </c>
       <c r="Y5" t="n">
-        <v>1195.229807814243</v>
+        <v>1002.294123926024</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>517.1829502645916</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>342.7299209834646</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>193.7955113222133</v>
+        <v>340.3300692953282</v>
       </c>
       <c r="E6" t="n">
-        <v>34.5580563167578</v>
+        <v>181.0926142898727</v>
       </c>
       <c r="F6" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G6" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H6" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787572</v>
+        <v>61.66788464787527</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806072</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189994</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223524</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.897120035251</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228322</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639512</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906554</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="V6" t="n">
-        <v>1355.247442983348</v>
+        <v>1210.726552674806</v>
       </c>
       <c r="W6" t="n">
-        <v>1101.010086255146</v>
+        <v>956.4891959466047</v>
       </c>
       <c r="X6" t="n">
-        <v>893.1585860496134</v>
+        <v>956.4891959466047</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.3982872846595</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="D7" t="n">
-        <v>219.7024101734667</v>
+        <v>329.3610973970611</v>
       </c>
       <c r="E7" t="n">
-        <v>71.78931659107357</v>
+        <v>181.448003814668</v>
       </c>
       <c r="F7" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G7" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H7" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I7" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J7" t="n">
-        <v>34.5580563167578</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574729</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584123</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347983</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195381</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934734</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858024</v>
+        <v>369.8190495858002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>334.4233539899546</v>
+        <v>721.0231940540818</v>
       </c>
       <c r="C8" t="n">
-        <v>334.4233539899546</v>
+        <v>721.0231940540818</v>
       </c>
       <c r="D8" t="n">
-        <v>334.4233539899546</v>
+        <v>362.7574954473313</v>
       </c>
       <c r="E8" t="n">
-        <v>334.4233539899546</v>
+        <v>62.30533854348529</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>55.35983779428182</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301913</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232738</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711894</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578733</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135171</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545601</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172452</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904658</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1837.396939561087</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>1484.628284290973</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029888</v>
+        <v>1111.162526029894</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540764</v>
+        <v>721.0231940540818</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562348</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104394</v>
+        <v>504.1959674104406</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789486</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689046</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333486</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333486</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333486</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1400.563316948362</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081626</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>937.3096188498832</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>475.2207619161488</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>312.3666861218701</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>338.1722376183967</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809316</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981519</v>
+        <v>92.71685897981553</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927331</v>
+        <v>287.1411594927341</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377459</v>
+        <v>393.9588065377472</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033657</v>
+        <v>472.3091036033673</v>
       </c>
       <c r="P10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="R10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="S10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="T10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="U10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="V10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="W10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="X10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.289347040599</v>
+        <v>520.2893470406008</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>265.0731740618515</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876726</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597657</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474299</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474299</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9565346495196</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179123</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400749</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400749</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400749</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400749</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>366.9636532421645</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>199.7675539570444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5688,37 +5688,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648823</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611862</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138447</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703146</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,19 +5934,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
         <v>1729.097755135313</v>
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6141,10 +6141,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400676</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121607</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6387,49 +6387,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038306</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611855</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703073</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.580456911444</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835369</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345712011</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2251.007271617392</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2031.405806640333</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1742.330579984531</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1487.646091778644</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1198.228921741684</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.228921741684</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741684</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6940,16 +6940,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7371,13 +7371,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,28 +7627,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7666,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>144.5956654067366</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>35.40333084624207</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V22" t="n">
-        <v>180.533687599287</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909865318</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>53.40527886852669</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697895</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861532.6408697898</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861532.6408697895</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861532.6408697895</v>
+        <v>861532.6408697896</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861532.6408697896</v>
+        <v>861532.6408697898</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830042</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830043</v>
@@ -26346,16 +26346,16 @@
         <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253137</v>
+        <v>270592.362025312</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231913</v>
+        <v>115410.0540231945</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742639</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765882004</v>
+        <v>62913.63765881965</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197452</v>
+        <v>27875.25362197532</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263458</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186726</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936829</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352150.0288615907</v>
+        <v>-352150.0288615906</v>
       </c>
       <c r="C6" t="n">
-        <v>21096.71923397009</v>
+        <v>21096.71923397166</v>
       </c>
       <c r="D6" t="n">
-        <v>199917.1129370373</v>
+        <v>199917.1129370345</v>
       </c>
       <c r="E6" t="n">
-        <v>-152737.1929113921</v>
+        <v>-152424.5515824698</v>
       </c>
       <c r="F6" t="n">
-        <v>448706.0146628729</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="G6" t="n">
-        <v>448706.014662873</v>
+        <v>449018.655991794</v>
       </c>
       <c r="H6" t="n">
-        <v>448706.014662873</v>
+        <v>449018.6559917942</v>
       </c>
       <c r="I6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917941</v>
       </c>
       <c r="J6" t="n">
-        <v>399641.0699343281</v>
+        <v>399953.7112632497</v>
       </c>
       <c r="K6" t="n">
-        <v>385792.3770040529</v>
+        <v>386105.0183329744</v>
       </c>
       <c r="L6" t="n">
-        <v>420830.7610408984</v>
+        <v>421143.4023698188</v>
       </c>
       <c r="M6" t="n">
-        <v>291559.634111275</v>
+        <v>291872.2754401964</v>
       </c>
       <c r="N6" t="n">
-        <v>448706.0146628731</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="O6" t="n">
-        <v>448706.0146628729</v>
+        <v>449018.6559917943</v>
       </c>
       <c r="P6" t="n">
-        <v>448706.0146628729</v>
+        <v>449018.6559917941</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950628</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
-        <v>853.710664537684</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594725</v>
+        <v>431.9757039594707</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261646</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.429688382158</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262119</v>
+        <v>94.8110352426238</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039895</v>
+        <v>514.2648358039886</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931524</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663203</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931524</v>
+        <v>244.4501167931509</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931524</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666907</v>
+        <v>110.1392527666939</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H2" t="n">
-        <v>290.2904392801603</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>287.6660204267378</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>17.42428733390808</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>91.24913371791439</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849659</v>
+        <v>93.20510176849682</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,10 +27560,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>262.1573673416611</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714734</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760021</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425878</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372554</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>208.1326294300567</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246128</v>
+        <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937506</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074779</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27754,16 +27754,16 @@
         <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>143.0756814054514</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>82.37190859536247</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.5621003513607</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.5621003513586</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304032</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589136</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2443834913143</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>84.48273473745422</v>
       </c>
       <c r="F8" t="n">
-        <v>130.6031647079953</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708302</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721433</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>172.4862383660579</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.45716074096842</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888598</v>
+        <v>135.5663557888581</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425556</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28553,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29459,7 +29459,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29678,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.859222202665234e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.688728963361221e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085677</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.2445460442937</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428057</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286707</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520275</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511785</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968108</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610705</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191498</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860971</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634662</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098733</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898994</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920256</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868541</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.63235014603089</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403518</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062494</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475939</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316635</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721895</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658092</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468673</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374459</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872495</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547501</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632162</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947725</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378891</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757165</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236998</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377987</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734538</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635579</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260803</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162534</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399142</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528492</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275351</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515002</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235545</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.5330748605472</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391204</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.84725943883081</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656363</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840425</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934777</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662297</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928394</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699489</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206619</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095114</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616797</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730377</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152842</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884504</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475631</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053858</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057842</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017474</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001568</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368735</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282505</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420138</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153088</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978874</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200311</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669251</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198445</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407047</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811912</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695381</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644796</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.936160097463</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308275</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890167</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092719</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573045</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923154</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437909</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635339</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930015</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729192</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872858</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554495</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501512</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230912</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761599</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569228</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235256</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142394</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808905</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140553</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866205</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109601</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093947</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510194</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892904</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850721</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563525</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767806</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769679</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366978</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060491</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096312</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924756</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
